--- a/biology/Zoologie/Erebia_lafontainei/Erebia_lafontainei.xlsx
+++ b/biology/Zoologie/Erebia_lafontainei/Erebia_lafontainei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia lafontainei est une espèce de lépidoptères appartenant à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Erebia.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Erebia lafontainei a été nommé par James T. Troubridge et Kenelm W. Philip en 1983[1].
-Il serait très proche d'Erebia kozhantshikovi Sheljuzhko, 1925 qui réside dans la toundra arctique de Sibérie[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Erebia lafontainei a été nommé par James T. Troubridge et Kenelm W. Philip en 1983.
+Il serait très proche d'Erebia kozhantshikovi Sheljuzhko, 1925 qui réside dans la toundra arctique de Sibérie,.
 </t>
         </is>
       </c>
@@ -543,12 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Erebia lafontainei est un papillon marron très foncé presque noir, de taille petite à moyenne (d'une envergure de 33 à 45 mm) avec aux ailes antérieures une ligne submarginale de quatre taches orange pupillées de noir, et aux ailes postérieures rien ou une à trois petites taches orange.
-Le revers des ailes est plus clair, marron cuivré, avec les mêmes ornementations à l'aile antérieure et une large bande marginale plus claire à l'aile postérieure[2],[4].
-Chenille
-La chenille n'est pas connue[4].
+Le revers des ailes est plus clair, marron cuivré, avec les mêmes ornementations à l'aile antérieure et une large bande marginale plus claire à l'aile postérieure,.
 </t>
         </is>
       </c>
@@ -574,15 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une génération de juin à mi-juillet[2].
-Plantes hôtes
-Les plantes hôtes des chenilles pourraient être des Carex[2].
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille n'est pas connue.
 </t>
         </is>
       </c>
@@ -608,16 +625,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de juin à mi-juillet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes des chenilles pourraient être des Carex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent dans la zone arctique de l'Amérique du Nord, en Alaska, dans le Yukon, et dans les Territoires du Nord-Ouest[2].
-Biotope
-Il réside dans la toundra arctique[2].
-Protection
-Pas de statut de protection particulier connu.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans la zone arctique de l'Amérique du Nord, en Alaska, dans le Yukon, et dans les Territoires du Nord-Ouest.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans la toundra arctique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erebia_lafontainei</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier connu.
 </t>
         </is>
       </c>
